--- a/data/trans_orig/P6511-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6511-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{992B8F7F-713B-4689-A495-15A716B62621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F59C4681-A077-4D00-882F-680C145ABA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{81151A4F-58A8-4CD4-8565-CD4723B7AE84}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B237068C-8282-4DD4-ABC7-F745971E6359}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="232">
   <si>
     <t>Población según el uso de equipo de protección individual durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,08%)</t>
   </si>
@@ -74,58 +74,58 @@
     <t>41,35%</t>
   </si>
   <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
   </si>
   <si>
     <t>73,98%</t>
   </si>
   <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
   </si>
   <si>
     <t>51,17%</t>
   </si>
   <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
     <t>40,16%</t>
   </si>
   <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
     <t>11,29%</t>
   </si>
   <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
   </si>
   <si>
     <t>21,79%</t>
   </si>
   <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>17,51%</t>
   </si>
   <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
   </si>
   <si>
     <t>11,17%</t>
   </si>
   <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
   </si>
   <si>
     <t>15,61%</t>
   </si>
   <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,10 +164,10 @@
     <t>14,83%</t>
   </si>
   <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
   </si>
   <si>
     <t>3,55%</t>
@@ -176,550 +176,559 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>17,08%</t>
+    <t>14,65%</t>
   </si>
   <si>
     <t>11,43%</t>
   </si>
   <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
     <t>5,34%</t>
   </si>
   <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
   </si>
   <si>
     <t>11,36%</t>
   </si>
   <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
+    <t>9,49%</t>
   </si>
   <si>
     <t>13,4%</t>
   </si>
   <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
     <t>58,95%</t>
   </si>
   <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
   </si>
   <si>
     <t>81,14%</t>
   </si>
   <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
   </si>
   <si>
     <t>66,71%</t>
   </si>
   <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
   </si>
   <si>
     <t>15,07%</t>
   </si>
   <si>
-    <t>16,86%</t>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
   </si>
   <si>
     <t>8,31%</t>
   </si>
   <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
   </si>
   <si>
     <t>12,7%</t>
   </si>
   <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
   </si>
   <si>
     <t>10,55%</t>
   </si>
   <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
   </si>
   <si>
     <t>4,66%</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
   </si>
   <si>
     <t>15,43%</t>
   </si>
   <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
   </si>
   <si>
     <t>5,89%</t>
   </si>
   <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
   </si>
   <si>
     <t>12,09%</t>
   </si>
   <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1134,7 +1143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E843D8-1FEF-4B52-84A4-09A3ED8AF92A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713E6E3E-04E8-4A1F-889C-FBC0AB9AA7B9}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1895,7 +1904,7 @@
         <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M16" s="7">
         <v>71</v>
@@ -1904,13 +1913,13 @@
         <v>76123</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1925,13 +1934,13 @@
         <v>82797</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -1940,13 +1949,13 @@
         <v>18736</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>91</v>
@@ -1955,13 +1964,13 @@
         <v>101533</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2017,7 +2026,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2029,13 +2038,13 @@
         <v>234878</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H19" s="7">
         <v>189</v>
@@ -2044,13 +2053,13 @@
         <v>188191</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>403</v>
@@ -2059,13 +2068,13 @@
         <v>423069</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2080,13 +2089,13 @@
         <v>47348</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -2095,13 +2104,13 @@
         <v>13407</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>56</v>
@@ -2110,13 +2119,13 @@
         <v>60755</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2131,13 +2140,13 @@
         <v>37836</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -2146,13 +2155,13 @@
         <v>5774</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>43</v>
@@ -2161,13 +2170,13 @@
         <v>43611</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2182,13 +2191,13 @@
         <v>87358</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -2197,13 +2206,13 @@
         <v>5575</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>87</v>
@@ -2212,13 +2221,13 @@
         <v>92932</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2274,7 +2283,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2286,13 +2295,13 @@
         <v>343932</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>289</v>
@@ -2301,13 +2310,13 @@
         <v>308256</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>643</v>
@@ -2316,13 +2325,13 @@
         <v>652188</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2337,13 +2346,13 @@
         <v>76015</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>28</v>
@@ -2352,13 +2361,13 @@
         <v>29798</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>106</v>
@@ -2367,13 +2376,13 @@
         <v>105813</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2388,13 +2397,13 @@
         <v>58096</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>19</v>
@@ -2403,13 +2412,13 @@
         <v>19926</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>78</v>
@@ -2418,13 +2427,13 @@
         <v>78022</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,13 +2448,13 @@
         <v>76953</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H27" s="7">
         <v>30</v>
@@ -2454,13 +2463,13 @@
         <v>30143</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M27" s="7">
         <v>113</v>
@@ -2469,13 +2478,13 @@
         <v>107096</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>103</v>
+        <v>193</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2540,16 +2549,16 @@
         <v>1073</v>
       </c>
       <c r="D29" s="7">
-        <v>1123289</v>
+        <v>1123290</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H29" s="7">
         <v>796</v>
@@ -2558,13 +2567,13 @@
         <v>831880</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>1869</v>
@@ -2573,13 +2582,13 @@
         <v>1955169</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2594,13 +2603,13 @@
         <v>287154</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H30" s="7">
         <v>80</v>
@@ -2609,13 +2618,13 @@
         <v>85162</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M30" s="7">
         <v>354</v>
@@ -2624,13 +2633,13 @@
         <v>372316</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,13 +2654,13 @@
         <v>201047</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>46</v>
@@ -2660,13 +2669,13 @@
         <v>47820</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>240</v>
@@ -2678,10 +2687,10 @@
         <v>80</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>105</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,13 +2705,13 @@
         <v>293970</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H32" s="7">
         <v>59</v>
@@ -2711,13 +2720,13 @@
         <v>60438</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M32" s="7">
         <v>342</v>
@@ -2726,13 +2735,13 @@
         <v>354408</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,7 +2753,7 @@
         <v>1824</v>
       </c>
       <c r="D33" s="7">
-        <v>1905460</v>
+        <v>1905461</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -2788,7 +2797,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6511-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6511-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F59C4681-A077-4D00-882F-680C145ABA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D3AF252-3BB2-4F39-88CD-D58E449C47B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B237068C-8282-4DD4-ABC7-F745971E6359}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C2BAAC2C-FAA0-4177-92CD-1420D498DEB3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="229">
   <si>
     <t>Población según el uso de equipo de protección individual durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,08%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -74,28 +74,28 @@
     <t>41,35%</t>
   </si>
   <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
   </si>
   <si>
     <t>73,98%</t>
   </si>
   <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
   </si>
   <si>
     <t>51,17%</t>
   </si>
   <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>26,31%</t>
   </si>
   <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
   </si>
   <si>
     <t>11,29%</t>
   </si>
   <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
   </si>
   <si>
     <t>21,79%</t>
   </si>
   <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>17,51%</t>
   </si>
   <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
   </si>
   <si>
     <t>11,17%</t>
   </si>
   <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
   </si>
   <si>
     <t>15,61%</t>
   </si>
   <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,10 +164,10 @@
     <t>14,83%</t>
   </si>
   <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
   </si>
   <si>
     <t>3,55%</t>
@@ -176,559 +176,550 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>14,65%</t>
+    <t>14,88%</t>
   </si>
   <si>
     <t>11,43%</t>
   </si>
   <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>57,42%</t>
   </si>
   <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
   </si>
   <si>
     <t>76,92%</t>
   </si>
   <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
   </si>
   <si>
     <t>63,02%</t>
   </si>
   <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
   </si>
   <si>
     <t>20,95%</t>
   </si>
   <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
   </si>
   <si>
     <t>14,63%</t>
   </si>
   <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
   </si>
   <si>
     <t>19,13%</t>
   </si>
   <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
   </si>
   <si>
     <t>9,89%</t>
   </si>
   <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
   </si>
   <si>
     <t>4,58%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
   </si>
   <si>
     <t>8,36%</t>
   </si>
   <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
   </si>
   <si>
     <t>11,74%</t>
   </si>
   <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
     <t>8,49%</t>
   </si>
   <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
   </si>
   <si>
     <t>7,45%</t>
   </si>
   <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
     <t>12,09%</t>
   </si>
   <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1143,7 +1134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713E6E3E-04E8-4A1F-889C-FBC0AB9AA7B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAA858C-2DF0-47FE-9193-3FAA53D96B50}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1883,13 +1874,13 @@
         <v>62786</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -1898,13 +1889,13 @@
         <v>13337</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="M16" s="7">
         <v>71</v>
@@ -1913,13 +1904,13 @@
         <v>76123</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1934,13 +1925,13 @@
         <v>82797</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -1949,13 +1940,13 @@
         <v>18736</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>91</v>
@@ -1964,13 +1955,13 @@
         <v>101533</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2092,7 +2083,7 @@
         <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>134</v>
@@ -2140,13 +2131,13 @@
         <v>37836</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -2155,13 +2146,13 @@
         <v>5774</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>43</v>
@@ -2170,13 +2161,13 @@
         <v>43611</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2191,13 +2182,13 @@
         <v>87358</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -2206,13 +2197,13 @@
         <v>5575</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>87</v>
@@ -2221,13 +2212,13 @@
         <v>92932</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2283,7 +2274,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2295,13 +2286,13 @@
         <v>343932</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H24" s="7">
         <v>289</v>
@@ -2310,13 +2301,13 @@
         <v>308256</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>643</v>
@@ -2325,13 +2316,13 @@
         <v>652188</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2346,13 +2337,13 @@
         <v>76015</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>28</v>
@@ -2361,13 +2352,13 @@
         <v>29798</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>106</v>
@@ -2376,13 +2367,13 @@
         <v>105813</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2397,13 +2388,13 @@
         <v>58096</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>19</v>
@@ -2412,13 +2403,13 @@
         <v>19926</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>78</v>
@@ -2427,13 +2418,13 @@
         <v>78022</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2448,13 +2439,13 @@
         <v>76953</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H27" s="7">
         <v>30</v>
@@ -2463,13 +2454,13 @@
         <v>30143</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M27" s="7">
         <v>113</v>
@@ -2478,13 +2469,13 @@
         <v>107096</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>194</v>
+        <v>85</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2549,16 +2540,16 @@
         <v>1073</v>
       </c>
       <c r="D29" s="7">
-        <v>1123290</v>
+        <v>1123289</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H29" s="7">
         <v>796</v>
@@ -2567,13 +2558,13 @@
         <v>831880</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M29" s="7">
         <v>1869</v>
@@ -2582,13 +2573,13 @@
         <v>1955169</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2603,13 +2594,13 @@
         <v>287154</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H30" s="7">
         <v>80</v>
@@ -2618,13 +2609,13 @@
         <v>85162</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M30" s="7">
         <v>354</v>
@@ -2633,13 +2624,13 @@
         <v>372316</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2654,13 +2645,13 @@
         <v>201047</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H31" s="7">
         <v>46</v>
@@ -2669,13 +2660,13 @@
         <v>47820</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M31" s="7">
         <v>240</v>
@@ -2684,13 +2675,13 @@
         <v>248867</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,13 +2696,13 @@
         <v>293970</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H32" s="7">
         <v>59</v>
@@ -2720,13 +2711,13 @@
         <v>60438</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M32" s="7">
         <v>342</v>
@@ -2735,13 +2726,13 @@
         <v>354408</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2753,7 +2744,7 @@
         <v>1824</v>
       </c>
       <c r="D33" s="7">
-        <v>1905461</v>
+        <v>1905460</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -2797,7 +2788,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6511-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6511-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D3AF252-3BB2-4F39-88CD-D58E449C47B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4577F976-DD2B-4E6E-AD0F-ED14E71BA474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C2BAAC2C-FAA0-4177-92CD-1420D498DEB3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{861AC0DE-D7A6-4839-B1B4-369642DD045C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>41,35%</t>
   </si>
   <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
   </si>
   <si>
     <t>73,98%</t>
   </si>
   <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
   </si>
   <si>
     <t>51,17%</t>
   </si>
   <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>26,31%</t>
   </si>
   <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
   </si>
   <si>
     <t>11,29%</t>
   </si>
   <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
   </si>
   <si>
     <t>21,79%</t>
   </si>
   <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>17,51%</t>
   </si>
   <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
   </si>
   <si>
     <t>11,17%</t>
   </si>
   <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
   </si>
   <si>
     <t>15,61%</t>
   </si>
   <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,10 +164,10 @@
     <t>14,83%</t>
   </si>
   <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
   </si>
   <si>
     <t>3,55%</t>
@@ -176,16 +176,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>14,88%</t>
+    <t>17,08%</t>
   </si>
   <si>
     <t>11,43%</t>
   </si>
   <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,319 +197,328 @@
     <t>57,42%</t>
   </si>
   <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
   </si>
   <si>
     <t>76,92%</t>
   </si>
   <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
   </si>
   <si>
     <t>63,02%</t>
   </si>
   <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
   </si>
   <si>
     <t>20,95%</t>
   </si>
   <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
   </si>
   <si>
     <t>14,63%</t>
   </si>
   <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
   </si>
   <si>
     <t>19,13%</t>
   </si>
   <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
   </si>
   <si>
     <t>9,89%</t>
   </si>
   <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
     <t>6,99%</t>
   </si>
   <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
   </si>
   <si>
     <t>9,29%</t>
   </si>
   <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
   </si>
   <si>
     <t>2,71%</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
   </si>
   <si>
     <t>7,03%</t>
   </si>
   <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
   </si>
   <si>
     <t>21,44%</t>
   </si>
   <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
   </si>
   <si>
     <t>2,62%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
   </si>
   <si>
     <t>14,98%</t>
   </si>
   <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -518,28 +527,25 @@
     <t>61,97%</t>
   </si>
   <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
   </si>
   <si>
     <t>79,42%</t>
   </si>
   <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
   </si>
   <si>
     <t>69,15%</t>
   </si>
   <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
+    <t>65,95%</t>
   </si>
   <si>
     <t>13,7%</t>
@@ -548,13 +554,13 @@
     <t>11,14%</t>
   </si>
   <si>
-    <t>16,69%</t>
+    <t>17,28%</t>
   </si>
   <si>
     <t>7,68%</t>
   </si>
   <si>
-    <t>5,37%</t>
+    <t>5,23%</t>
   </si>
   <si>
     <t>10,92%</t>
@@ -563,52 +569,55 @@
     <t>11,22%</t>
   </si>
   <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
   </si>
   <si>
     <t>10,47%</t>
   </si>
   <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
   </si>
   <si>
     <t>5,13%</t>
   </si>
   <si>
-    <t>3,43%</t>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
   </si>
   <si>
     <t>7,77%</t>
   </si>
   <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -617,109 +626,100 @@
     <t>58,95%</t>
   </si>
   <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
   </si>
   <si>
     <t>81,14%</t>
   </si>
   <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
   </si>
   <si>
     <t>66,71%</t>
   </si>
   <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
   </si>
   <si>
     <t>15,07%</t>
   </si>
   <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
+    <t>16,86%</t>
   </si>
   <si>
     <t>8,31%</t>
   </si>
   <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
   </si>
   <si>
     <t>12,7%</t>
   </si>
   <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
   </si>
   <si>
     <t>10,55%</t>
   </si>
   <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
   </si>
   <si>
     <t>4,66%</t>
   </si>
   <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
   </si>
   <si>
     <t>15,43%</t>
   </si>
   <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
   </si>
   <si>
     <t>5,89%</t>
   </si>
   <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
   </si>
   <si>
     <t>12,09%</t>
   </si>
   <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1134,7 +1134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAA858C-2DF0-47FE-9193-3FAA53D96B50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18722FEA-E43C-43E6-ADF3-5342779C9680}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1874,13 +1874,13 @@
         <v>62786</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -1889,13 +1889,13 @@
         <v>13337</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>71</v>
@@ -1904,13 +1904,13 @@
         <v>76123</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1925,13 +1925,13 @@
         <v>82797</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -1940,13 +1940,13 @@
         <v>18736</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>91</v>
@@ -1955,13 +1955,13 @@
         <v>101533</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2017,7 +2017,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2029,13 +2029,13 @@
         <v>234878</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="H19" s="7">
         <v>189</v>
@@ -2044,13 +2044,13 @@
         <v>188191</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>403</v>
@@ -2059,13 +2059,13 @@
         <v>423069</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2080,13 +2080,13 @@
         <v>47348</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -2095,13 +2095,13 @@
         <v>13407</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>56</v>
@@ -2110,13 +2110,13 @@
         <v>60755</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2131,13 +2131,13 @@
         <v>37836</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -2146,13 +2146,13 @@
         <v>5774</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>43</v>
@@ -2161,13 +2161,13 @@
         <v>43611</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2182,13 +2182,13 @@
         <v>87358</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -2197,13 +2197,13 @@
         <v>5575</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>87</v>
@@ -2212,13 +2212,13 @@
         <v>92932</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2274,7 +2274,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2286,13 +2286,13 @@
         <v>343932</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>289</v>
@@ -2301,13 +2301,13 @@
         <v>308256</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>643</v>
@@ -2316,13 +2316,13 @@
         <v>652188</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2337,13 +2337,13 @@
         <v>76015</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>28</v>
@@ -2352,13 +2352,13 @@
         <v>29798</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>106</v>
@@ -2367,13 +2367,13 @@
         <v>105813</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2388,13 +2388,13 @@
         <v>58096</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>19</v>
@@ -2403,13 +2403,13 @@
         <v>19926</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>78</v>
@@ -2418,13 +2418,13 @@
         <v>78022</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,13 +2439,13 @@
         <v>76953</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H27" s="7">
         <v>30</v>
@@ -2454,13 +2454,13 @@
         <v>30143</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M27" s="7">
         <v>113</v>
@@ -2469,13 +2469,13 @@
         <v>107096</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2543,13 +2543,13 @@
         <v>1123289</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>796</v>
@@ -2558,13 +2558,13 @@
         <v>831880</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>1869</v>
@@ -2573,13 +2573,13 @@
         <v>1955169</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2594,13 +2594,13 @@
         <v>287154</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H30" s="7">
         <v>80</v>
@@ -2609,13 +2609,13 @@
         <v>85162</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>354</v>
@@ -2624,13 +2624,13 @@
         <v>372316</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,13 +2645,13 @@
         <v>201047</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H31" s="7">
         <v>46</v>
@@ -2660,13 +2660,13 @@
         <v>47820</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M31" s="7">
         <v>240</v>
@@ -2675,13 +2675,13 @@
         <v>248867</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>216</v>
+        <v>80</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>218</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6511-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6511-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4577F976-DD2B-4E6E-AD0F-ED14E71BA474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{754174E7-A6A3-4456-9E76-2EFD1E9BE3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{861AC0DE-D7A6-4839-B1B4-369642DD045C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4DF31B51-6A05-48AD-B802-6E91820057FE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="194">
   <si>
     <t>Población según el uso de equipo de protección individual durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,08%)</t>
   </si>
@@ -65,631 +65,526 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
   </si>
   <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
   </si>
   <si>
     <t>Muchas veces</t>
   </si>
   <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
   </si>
   <si>
     <t>Siempre</t>
   </si>
   <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
   </si>
   <si>
     <t>62,69%</t>
   </si>
   <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
   </si>
   <si>
     <t>8,49%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
   </si>
   <si>
     <t>7,52%</t>
@@ -1134,8 +1029,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18722FEA-E43C-43E6-ADF3-5342779C9680}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F562E58C-BA6F-4B99-90E5-BC48D9F88968}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1252,10 +1147,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>22</v>
+        <v>204</v>
       </c>
       <c r="D4" s="7">
-        <v>23539</v>
+        <v>211423</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1267,10 +1162,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="I4" s="7">
-        <v>18120</v>
+        <v>119661</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1282,10 +1177,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>42</v>
+        <v>321</v>
       </c>
       <c r="N4" s="7">
-        <v>41659</v>
+        <v>331084</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1303,10 +1198,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="D5" s="7">
-        <v>14978</v>
+        <v>83537</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1318,10 +1213,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="I5" s="7">
-        <v>2766</v>
+        <v>22076</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1333,10 +1228,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="N5" s="7">
-        <v>17745</v>
+        <v>105613</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1354,10 +1249,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D6" s="7">
-        <v>9969</v>
+        <v>42328</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1369,10 +1264,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I6" s="7">
-        <v>2737</v>
+        <v>8783</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1384,10 +1279,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="N6" s="7">
-        <v>12705</v>
+        <v>51111</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1405,10 +1300,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="D7" s="7">
-        <v>8440</v>
+        <v>46862</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1420,10 +1315,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>870</v>
+        <v>5984</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1435,10 +1330,10 @@
         <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="N7" s="7">
-        <v>9310</v>
+        <v>52846</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1456,10 +1351,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>50</v>
+        <v>367</v>
       </c>
       <c r="D8" s="7">
-        <v>56926</v>
+        <v>384150</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1471,10 +1366,10 @@
         <v>50</v>
       </c>
       <c r="H8" s="7">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="I8" s="7">
-        <v>24493</v>
+        <v>156505</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1486,10 +1381,10 @@
         <v>50</v>
       </c>
       <c r="M8" s="7">
-        <v>77</v>
+        <v>520</v>
       </c>
       <c r="N8" s="7">
-        <v>81419</v>
+        <v>540655</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1509,10 +1404,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>182</v>
+        <v>301</v>
       </c>
       <c r="D9" s="7">
-        <v>187883</v>
+        <v>333057</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1524,10 +1419,10 @@
         <v>54</v>
       </c>
       <c r="H9" s="7">
-        <v>97</v>
+        <v>201</v>
       </c>
       <c r="I9" s="7">
-        <v>101541</v>
+        <v>215772</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1539,10 +1434,10 @@
         <v>57</v>
       </c>
       <c r="M9" s="7">
-        <v>279</v>
+        <v>502</v>
       </c>
       <c r="N9" s="7">
-        <v>289424</v>
+        <v>548829</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1560,10 +1455,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D10" s="7">
-        <v>68559</v>
+        <v>80254</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1575,10 +1470,10 @@
         <v>63</v>
       </c>
       <c r="H10" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I10" s="7">
-        <v>19310</v>
+        <v>19881</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1590,10 +1485,10 @@
         <v>66</v>
       </c>
       <c r="M10" s="7">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="N10" s="7">
-        <v>87869</v>
+        <v>100135</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
@@ -1611,10 +1506,10 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D11" s="7">
-        <v>32359</v>
+        <v>62786</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>70</v>
@@ -1626,10 +1521,10 @@
         <v>72</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I11" s="7">
-        <v>6047</v>
+        <v>13337</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>73</v>
@@ -1641,10 +1536,10 @@
         <v>75</v>
       </c>
       <c r="M11" s="7">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="N11" s="7">
-        <v>38406</v>
+        <v>76123</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>76</v>
@@ -1662,10 +1557,10 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="D12" s="7">
-        <v>38422</v>
+        <v>82797</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>79</v>
@@ -1677,10 +1572,10 @@
         <v>81</v>
       </c>
       <c r="H12" s="7">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I12" s="7">
-        <v>5114</v>
+        <v>18736</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>82</v>
@@ -1692,10 +1587,10 @@
         <v>84</v>
       </c>
       <c r="M12" s="7">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N12" s="7">
-        <v>43537</v>
+        <v>101533</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>85</v>
@@ -1713,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>317</v>
+        <v>507</v>
       </c>
       <c r="D13" s="7">
-        <v>327223</v>
+        <v>558895</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -1728,10 +1623,10 @@
         <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="I13" s="7">
-        <v>132012</v>
+        <v>267726</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1743,10 +1638,10 @@
         <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>443</v>
+        <v>756</v>
       </c>
       <c r="N13" s="7">
-        <v>459235</v>
+        <v>826621</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1766,10 +1661,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>301</v>
+        <v>214</v>
       </c>
       <c r="D14" s="7">
-        <v>333057</v>
+        <v>234878</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>89</v>
@@ -1781,10 +1676,10 @@
         <v>91</v>
       </c>
       <c r="H14" s="7">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="I14" s="7">
-        <v>215772</v>
+        <v>188191</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>92</v>
@@ -1796,10 +1691,10 @@
         <v>94</v>
       </c>
       <c r="M14" s="7">
-        <v>502</v>
+        <v>403</v>
       </c>
       <c r="N14" s="7">
-        <v>548829</v>
+        <v>423069</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>95</v>
@@ -1817,10 +1712,10 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="D15" s="7">
-        <v>80254</v>
+        <v>47348</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>98</v>
@@ -1832,10 +1727,10 @@
         <v>100</v>
       </c>
       <c r="H15" s="7">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I15" s="7">
-        <v>19881</v>
+        <v>13407</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>101</v>
@@ -1847,10 +1742,10 @@
         <v>103</v>
       </c>
       <c r="M15" s="7">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="N15" s="7">
-        <v>100135</v>
+        <v>60755</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>104</v>
@@ -1868,10 +1763,10 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D16" s="7">
-        <v>62786</v>
+        <v>37836</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>107</v>
@@ -1883,10 +1778,10 @@
         <v>109</v>
       </c>
       <c r="H16" s="7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I16" s="7">
-        <v>13337</v>
+        <v>5774</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>110</v>
@@ -1898,10 +1793,10 @@
         <v>112</v>
       </c>
       <c r="M16" s="7">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="N16" s="7">
-        <v>76123</v>
+        <v>43611</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>113</v>
@@ -1919,10 +1814,10 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D17" s="7">
-        <v>82797</v>
+        <v>87358</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>116</v>
@@ -1934,10 +1829,10 @@
         <v>118</v>
       </c>
       <c r="H17" s="7">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="I17" s="7">
-        <v>18736</v>
+        <v>5575</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>119</v>
@@ -1949,10 +1844,10 @@
         <v>121</v>
       </c>
       <c r="M17" s="7">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N17" s="7">
-        <v>101533</v>
+        <v>92932</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>122</v>
@@ -1970,10 +1865,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>507</v>
+        <v>376</v>
       </c>
       <c r="D18" s="7">
-        <v>558895</v>
+        <v>407420</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -1985,10 +1880,10 @@
         <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="I18" s="7">
-        <v>267726</v>
+        <v>212946</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -2000,10 +1895,10 @@
         <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>756</v>
+        <v>589</v>
       </c>
       <c r="N18" s="7">
-        <v>826621</v>
+        <v>620366</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -2023,10 +1918,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>214</v>
+        <v>354</v>
       </c>
       <c r="D19" s="7">
-        <v>234878</v>
+        <v>343932</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>126</v>
@@ -2035,37 +1930,37 @@
         <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
-        <v>189</v>
+        <v>289</v>
       </c>
       <c r="I19" s="7">
-        <v>188191</v>
+        <v>308256</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
-        <v>403</v>
+        <v>643</v>
       </c>
       <c r="N19" s="7">
-        <v>423069</v>
+        <v>652188</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2074,10 +1969,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="D20" s="7">
-        <v>47348</v>
+        <v>76015</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>134</v>
@@ -2089,10 +1984,10 @@
         <v>136</v>
       </c>
       <c r="H20" s="7">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I20" s="7">
-        <v>13407</v>
+        <v>29798</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>137</v>
@@ -2104,10 +1999,10 @@
         <v>139</v>
       </c>
       <c r="M20" s="7">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="N20" s="7">
-        <v>60755</v>
+        <v>105813</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>140</v>
@@ -2125,10 +2020,10 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="D21" s="7">
-        <v>37836</v>
+        <v>58096</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>143</v>
@@ -2140,10 +2035,10 @@
         <v>145</v>
       </c>
       <c r="H21" s="7">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="I21" s="7">
-        <v>5774</v>
+        <v>19926</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>146</v>
@@ -2155,10 +2050,10 @@
         <v>148</v>
       </c>
       <c r="M21" s="7">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="N21" s="7">
-        <v>43611</v>
+        <v>78022</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>149</v>
@@ -2176,10 +2071,10 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D22" s="7">
-        <v>87358</v>
+        <v>76953</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>152</v>
@@ -2191,10 +2086,10 @@
         <v>154</v>
       </c>
       <c r="H22" s="7">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I22" s="7">
-        <v>5575</v>
+        <v>30143</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>155</v>
@@ -2206,19 +2101,19 @@
         <v>157</v>
       </c>
       <c r="M22" s="7">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="N22" s="7">
-        <v>92932</v>
+        <v>107096</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2227,10 +2122,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>376</v>
+        <v>574</v>
       </c>
       <c r="D23" s="7">
-        <v>407420</v>
+        <v>554996</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2242,10 +2137,10 @@
         <v>50</v>
       </c>
       <c r="H23" s="7">
-        <v>213</v>
+        <v>366</v>
       </c>
       <c r="I23" s="7">
-        <v>212946</v>
+        <v>388123</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2257,10 +2152,10 @@
         <v>50</v>
       </c>
       <c r="M23" s="7">
-        <v>589</v>
+        <v>940</v>
       </c>
       <c r="N23" s="7">
-        <v>620366</v>
+        <v>943119</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2274,55 +2169,55 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>354</v>
+        <v>1073</v>
       </c>
       <c r="D24" s="7">
-        <v>343932</v>
+        <v>1123289</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H24" s="7">
+        <v>796</v>
+      </c>
+      <c r="I24" s="7">
+        <v>831880</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H24" s="7">
-        <v>289</v>
-      </c>
-      <c r="I24" s="7">
-        <v>308256</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>1869</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1955169</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="M24" s="7">
-        <v>643</v>
-      </c>
-      <c r="N24" s="7">
-        <v>652188</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2331,49 +2226,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>78</v>
+        <v>274</v>
       </c>
       <c r="D25" s="7">
-        <v>76015</v>
+        <v>287154</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H25" s="7">
+        <v>80</v>
+      </c>
+      <c r="I25" s="7">
+        <v>85162</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H25" s="7">
-        <v>28</v>
-      </c>
-      <c r="I25" s="7">
-        <v>29798</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>354</v>
+      </c>
+      <c r="N25" s="7">
+        <v>372316</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="M25" s="7">
-        <v>106</v>
-      </c>
-      <c r="N25" s="7">
-        <v>105813</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,49 +2277,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>59</v>
+        <v>194</v>
       </c>
       <c r="D26" s="7">
-        <v>58096</v>
+        <v>201047</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H26" s="7">
+        <v>46</v>
+      </c>
+      <c r="I26" s="7">
+        <v>47820</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="H26" s="7">
-        <v>19</v>
-      </c>
-      <c r="I26" s="7">
-        <v>19926</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>240</v>
+      </c>
+      <c r="N26" s="7">
+        <v>248867</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="L26" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="M26" s="7">
-        <v>78</v>
-      </c>
-      <c r="N26" s="7">
-        <v>78022</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>186</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>187</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,49 +2328,49 @@
         <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>83</v>
+        <v>283</v>
       </c>
       <c r="D27" s="7">
-        <v>76953</v>
+        <v>293970</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H27" s="7">
+        <v>59</v>
+      </c>
+      <c r="I27" s="7">
+        <v>60438</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="M27" s="7">
+        <v>342</v>
+      </c>
+      <c r="N27" s="7">
+        <v>354408</v>
+      </c>
+      <c r="O27" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H27" s="7">
-        <v>30</v>
-      </c>
-      <c r="I27" s="7">
-        <v>30143</v>
-      </c>
-      <c r="J27" s="7" t="s">
+      <c r="P27" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="M27" s="7">
-        <v>113</v>
-      </c>
-      <c r="N27" s="7">
-        <v>107096</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,10 +2379,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>574</v>
+        <v>1824</v>
       </c>
       <c r="D28" s="7">
-        <v>554996</v>
+        <v>1905460</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>50</v>
@@ -2499,10 +2394,10 @@
         <v>50</v>
       </c>
       <c r="H28" s="7">
-        <v>366</v>
+        <v>981</v>
       </c>
       <c r="I28" s="7">
-        <v>388123</v>
+        <v>1025300</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>50</v>
@@ -2514,10 +2409,10 @@
         <v>50</v>
       </c>
       <c r="M28" s="7">
-        <v>940</v>
+        <v>2805</v>
       </c>
       <c r="N28" s="7">
-        <v>943119</v>
+        <v>2930760</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -2530,273 +2425,15 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>1073</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1123289</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H29" s="7">
-        <v>796</v>
-      </c>
-      <c r="I29" s="7">
-        <v>831880</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="M29" s="7">
-        <v>1869</v>
-      </c>
-      <c r="N29" s="7">
-        <v>1955169</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="7">
-        <v>274</v>
-      </c>
-      <c r="D30" s="7">
-        <v>287154</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H30" s="7">
-        <v>80</v>
-      </c>
-      <c r="I30" s="7">
-        <v>85162</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M30" s="7">
-        <v>354</v>
-      </c>
-      <c r="N30" s="7">
-        <v>372316</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="7">
-        <v>194</v>
-      </c>
-      <c r="D31" s="7">
-        <v>201047</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H31" s="7">
-        <v>46</v>
-      </c>
-      <c r="I31" s="7">
-        <v>47820</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="M31" s="7">
-        <v>240</v>
-      </c>
-      <c r="N31" s="7">
-        <v>248867</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="7">
-        <v>283</v>
-      </c>
-      <c r="D32" s="7">
-        <v>293970</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H32" s="7">
-        <v>59</v>
-      </c>
-      <c r="I32" s="7">
-        <v>60438</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M32" s="7">
-        <v>342</v>
-      </c>
-      <c r="N32" s="7">
-        <v>354408</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>1824</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1905460</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H33" s="7">
-        <v>981</v>
-      </c>
-      <c r="I33" s="7">
-        <v>1025300</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M33" s="7">
-        <v>2805</v>
-      </c>
-      <c r="N33" s="7">
-        <v>2930760</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>228</v>
+      <c r="A29" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
